--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve"> Calitl Calvario SARA</t>
   </si>
   <si>
-    <t>SEMANA 36  DEL   30  AL    05  SEPTIEMBRE     2021</t>
+    <t>SEMANA 41  DEL   04   AL    10   OCTUBRE     2021</t>
   </si>
 </sst>
 </file>
@@ -2259,6 +2259,12 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,12 +2319,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,11 +2337,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3146,11 +3146,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="147" t="s">
+      <c r="Y1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8408,17 +8408,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="152" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="152"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="151"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8435,10 +8435,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="149"/>
+      <c r="C12" s="151"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8447,10 +8447,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="152"/>
+      <c r="C17" s="154"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8459,10 +8459,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="149"/>
+      <c r="C22" s="151"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8526,7 +8526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AD2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9241,14 +9241,14 @@
       <c r="AB2" s="171"/>
       <c r="AC2" s="171"/>
       <c r="AD2" s="172"/>
-      <c r="AE2" s="153" t="s">
+      <c r="AE2" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9278,30 +9278,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="156" t="s">
+      <c r="AC3" s="158" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="158" t="s">
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="160" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="160" t="s">
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="148" t="s">
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="163" t="s">
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="165" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="154" t="s">
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="155"/>
+      <c r="AN3" s="157"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74"/>
@@ -9693,7 +9693,7 @@
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="148" t="s">
         <v>286</v>
       </c>
       <c r="C10" s="132" t="s">
@@ -9971,7 +9971,7 @@
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="147" t="s">
         <v>230</v>
       </c>
       <c r="C15" s="144" t="s">
@@ -10856,14 +10856,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="165" t="s">
+      <c r="AE1" s="173" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10893,30 +10893,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="156" t="s">
+      <c r="AC2" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="158" t="s">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="160" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="160" t="s">
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="148" t="s">
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="163" t="s">
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="165" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="164"/>
-      <c r="AM2" s="154" t="s">
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="155"/>
+      <c r="AN2" s="157"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="293">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1031,7 +1031,13 @@
     <t xml:space="preserve"> Calitl Calvario SARA</t>
   </si>
   <si>
-    <t>SEMANA 41  DEL   04   AL    10   OCTUBRE     2021</t>
+    <t>ROJAS HERNANDEZ OSCAR</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>SEMANA 46  DEL   08   AL    14   NOVIEMBRE     2021</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2342,6 +2348,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8525,7 +8534,7 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9178,7 +9187,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
@@ -10050,21 +10059,29 @@
       <c r="Z16" s="142"/>
       <c r="AA16" s="142"/>
       <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="142"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="142"/>
-      <c r="AH16" s="142"/>
-      <c r="AI16" s="142"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="142"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C17" s="69"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="146"/>
+      <c r="AF16" s="146"/>
+      <c r="AG16" s="146"/>
+      <c r="AH16" s="146"/>
+      <c r="AI16" s="146"/>
+      <c r="AJ16" s="146"/>
+      <c r="AK16" s="146"/>
+      <c r="AL16" s="146"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="146"/>
+    </row>
+    <row r="17" spans="1:40" ht="39.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="75">
+        <v>13</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="175" t="s">
+        <v>291</v>
+      </c>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -10090,15 +10107,20 @@
       <c r="Z17" s="70"/>
       <c r="AA17" s="70"/>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="81"/>
       <c r="C18" s="69"/>
       <c r="D18" s="70"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="291">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,16 +1028,10 @@
     <t>GONZALEZ MARTINEZ MA ESPERANZA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Calitl Calvario SARA</t>
-  </si>
-  <si>
-    <t>ROJAS HERNANDEZ OSCAR</t>
-  </si>
-  <si>
-    <t>VIGILANTE</t>
-  </si>
-  <si>
-    <t>SEMANA 46  DEL   08   AL    14   NOVIEMBRE     2021</t>
+    <t>AGUILAR SOLANO BEATRIZ</t>
+  </si>
+  <si>
+    <t>SEMANA 50  DEL   06   AL    12   DICIEMBRE     2021</t>
   </si>
 </sst>
 </file>
@@ -2271,6 +2265,9 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2348,9 +2345,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3155,11 +3149,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="149" t="s">
+      <c r="Y1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8417,17 +8411,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="153" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="153"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="151"/>
+      <c r="C5" s="152"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8444,10 +8438,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="152"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8456,10 +8450,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="154" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="154"/>
+      <c r="C17" s="155"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8468,10 +8462,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="151"/>
+      <c r="C22" s="152"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8534,7 +8528,7 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9186,78 +9180,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="169"/>
+      <c r="A1" s="168" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="170"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="155" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9287,30 +9281,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="158" t="s">
+      <c r="AC3" s="159" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="160" t="s">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162" t="s">
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="150" t="s">
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="165" t="s">
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="166"/>
-      <c r="AM3" s="156" t="s">
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="157"/>
+      <c r="AN3" s="158"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74"/>
@@ -9492,11 +9486,11 @@
       <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="133" t="s">
-        <v>124</v>
+      <c r="B6" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="66">
         <v>40969</v>
@@ -9550,11 +9544,11 @@
       <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>124</v>
+      <c r="B7" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="17"/>
@@ -9598,11 +9592,11 @@
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>133</v>
+      <c r="B8" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="134" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="17"/>
@@ -9642,15 +9636,15 @@
       <c r="AM8" s="94"/>
       <c r="AN8" s="65"/>
     </row>
-    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>33</v>
+      <c r="B9" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>277</v>
       </c>
       <c r="D9" s="66">
         <v>41225</v>
@@ -9702,11 +9696,11 @@
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="148" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="132" t="s">
-        <v>124</v>
+      <c r="B10" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="66">
         <v>41852</v>
@@ -9754,15 +9748,15 @@
       <c r="AM10" s="94"/>
       <c r="AN10" s="65"/>
     </row>
-    <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="138" t="s">
-        <v>285</v>
+      <c r="B11" s="104" t="s">
+        <v>123</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="D11" s="66">
         <v>42128</v>
@@ -9816,8 +9810,8 @@
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="136" t="s">
-        <v>167</v>
+      <c r="B12" s="114" t="s">
+        <v>126</v>
       </c>
       <c r="C12" s="133" t="s">
         <v>124</v>
@@ -9876,11 +9870,11 @@
       <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="136" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>277</v>
+      <c r="B13" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="132" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="17">
@@ -9932,11 +9926,11 @@
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="137" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>133</v>
+      <c r="B14" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>124</v>
       </c>
       <c r="D14" s="131"/>
       <c r="E14" s="65"/>
@@ -10072,16 +10066,12 @@
       <c r="AM16" s="146"/>
       <c r="AN16" s="146"/>
     </row>
-    <row r="17" spans="1:40" ht="39.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="139" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="175" t="s">
-        <v>291</v>
-      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -10157,8 +10147,8 @@
       <c r="AI18" s="70"/>
     </row>
   </sheetData>
-  <sortState ref="B5:C16">
-    <sortCondition ref="B5:B16"/>
+  <sortState ref="B11:C16">
+    <sortCondition ref="B11:B16"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>
@@ -10878,14 +10868,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="173" t="s">
+      <c r="AE1" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10915,30 +10905,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="158" t="s">
+      <c r="AC2" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="160" t="s">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162" t="s">
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="150" t="s">
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="165" t="s">
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="156" t="s">
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="157"/>
+      <c r="AN2" s="158"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 50  DEL   06   AL    12   DICIEMBRE     2021</t>
+    <t>SEMANA 01  DEL   03   AL    09     E N E R O      2022</t>
   </si>
 </sst>
 </file>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 01  DEL   03   AL    09     E N E R O      2022</t>
+    <t>SEMANA 05   DEL   31   AL    06  FEBRERO      2022</t>
   </si>
 </sst>
 </file>
@@ -8528,8 +8528,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 05   DEL   31   AL    06  FEBRERO      2022</t>
+    <t>SEMANA 09   DEL  28   AL   06  MARZO      2022</t>
   </si>
 </sst>
 </file>
@@ -8529,7 +8529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 09   DEL  28   AL   06  MARZO      2022</t>
+    <t>SEMANA 13   DEL  28   AL   03  ABRIL      2022</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2346,6 +2346,7 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -8528,8 +8529,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -10018,7 +10019,7 @@
       <c r="AM15" s="146"/>
       <c r="AN15" s="146"/>
     </row>
-    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
@@ -10053,7 +10054,7 @@
       <c r="Z16" s="142"/>
       <c r="AA16" s="142"/>
       <c r="AB16" s="142"/>
-      <c r="AC16" s="146"/>
+      <c r="AC16" s="176"/>
       <c r="AD16" s="146"/>
       <c r="AE16" s="146"/>
       <c r="AF16" s="146"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 13   DEL  28   AL   03  ABRIL      2022</t>
+    <t>SEMANA 18   DEL  02  AL   08   MAYO       2022</t>
   </si>
 </sst>
 </file>
@@ -2268,6 +2268,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2346,7 +2347,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3150,11 +3150,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="150" t="s">
+      <c r="Y1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8412,17 +8412,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="153"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="152"/>
+      <c r="C5" s="153"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8439,10 +8439,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="153"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8451,10 +8451,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="155"/>
+      <c r="C17" s="156"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8463,10 +8463,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="152" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="152"/>
+      <c r="C22" s="153"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9181,78 +9181,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="171"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="156" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="157" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9282,30 +9282,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="159" t="s">
+      <c r="AC3" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="161" t="s">
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="162" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="163" t="s">
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="164" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="151" t="s">
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="166" t="s">
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="167" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="157" t="s">
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="158"/>
+      <c r="AN3" s="159"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74"/>
@@ -10054,7 +10054,7 @@
       <c r="Z16" s="142"/>
       <c r="AA16" s="142"/>
       <c r="AB16" s="142"/>
-      <c r="AC16" s="176"/>
+      <c r="AC16" s="150"/>
       <c r="AD16" s="146"/>
       <c r="AE16" s="146"/>
       <c r="AF16" s="146"/>
@@ -10869,14 +10869,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="174" t="s">
+      <c r="AE1" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10906,30 +10906,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="159" t="s">
+      <c r="AC2" s="160" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="161" t="s">
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="162" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="163" t="s">
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="164" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="151" t="s">
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="166" t="s">
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="167" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="157" t="s">
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="158"/>
+      <c r="AN2" s="159"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 18   DEL  02  AL   08   MAYO       2022</t>
+    <t>SEMANA 22   DEL  30  AL   05   JUNIO        2022</t>
   </si>
 </sst>
 </file>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1025,13 +1025,13 @@
     <t>SANTOS BARRAGAN MARGARITO</t>
   </si>
   <si>
-    <t>GONZALEZ MARTINEZ MA ESPERANZA</t>
-  </si>
-  <si>
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 22   DEL  30  AL   05   JUNIO        2022</t>
+    <t>GARCIA CASTAÑEDA MARISOL</t>
+  </si>
+  <si>
+    <t>SEMANA 26   DEL  27  AL   03   JULIO        2022</t>
   </si>
 </sst>
 </file>
@@ -8529,8 +8529,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>133</v>
@@ -9488,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>133</v>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>GARCIA CASTAÑEDA MARISOL</t>
   </si>
   <si>
-    <t>SEMANA 26   DEL  27  AL   03   JULIO        2022</t>
+    <t>SEMANA 31      DEL    01      AL   07   AGOSTO        2022</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,6 +1237,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1318,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1940,12 +1947,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2268,7 +2288,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2346,6 +2365,10 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3150,11 +3173,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="151" t="s">
+      <c r="Y1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8412,17 +8435,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="153" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="154"/>
+      <c r="C3" s="153"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="153"/>
+      <c r="C5" s="152"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8439,10 +8462,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="153"/>
+      <c r="C12" s="152"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8451,10 +8474,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="154" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="156"/>
+      <c r="C17" s="155"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8463,10 +8486,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="153"/>
+      <c r="C22" s="152"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8529,8 +8552,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9181,78 +9204,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="171"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="170"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="157" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9282,30 +9305,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="160" t="s">
+      <c r="AC3" s="159" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="162" t="s">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="164" t="s">
+      <c r="AF3" s="162"/>
+      <c r="AG3" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="152" t="s">
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="167" t="s">
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="158" t="s">
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="159"/>
+      <c r="AN3" s="158"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74"/>
@@ -10019,7 +10042,7 @@
       <c r="AM15" s="146"/>
       <c r="AN15" s="146"/>
     </row>
-    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="74">
         <v>12</v>
       </c>
@@ -10053,18 +10076,18 @@
       <c r="Y16" s="142"/>
       <c r="Z16" s="142"/>
       <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="146"/>
-      <c r="AE16" s="146"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="146"/>
-      <c r="AH16" s="146"/>
-      <c r="AI16" s="146"/>
-      <c r="AJ16" s="146"/>
-      <c r="AK16" s="146"/>
-      <c r="AL16" s="146"/>
-      <c r="AM16" s="146"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="124"/>
       <c r="AN16" s="146"/>
     </row>
     <row r="17" spans="1:40" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10098,16 +10121,16 @@
       <c r="Z17" s="70"/>
       <c r="AA17" s="70"/>
       <c r="AB17" s="70"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="101"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="101"/>
       <c r="AM17" s="65"/>
       <c r="AN17" s="65"/>
     </row>
@@ -10869,14 +10892,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="175" t="s">
+      <c r="AE1" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10906,30 +10929,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="160" t="s">
+      <c r="AC2" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="161"/>
-      <c r="AE2" s="162" t="s">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="164" t="s">
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="163" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="152" t="s">
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="167" t="s">
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="158" t="s">
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="159"/>
+      <c r="AN2" s="158"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>GARCIA CASTAÑEDA MARISOL</t>
   </si>
   <si>
-    <t>SEMANA 31      DEL    01      AL   07   AGOSTO        2022</t>
+    <t>SEMANA 35      DEL    29    AL   04  SEPTIEMBRE  2022</t>
   </si>
 </sst>
 </file>
@@ -2288,6 +2288,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2365,10 +2369,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3173,11 +3173,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="150" t="s">
+      <c r="Y1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8435,17 +8435,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="153"/>
+      <c r="C3" s="155"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="153" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="152"/>
+      <c r="C5" s="154"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8462,10 +8462,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="153" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="154"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8474,10 +8474,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="156" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="155"/>
+      <c r="C17" s="157"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8486,10 +8486,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="153" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="152"/>
+      <c r="C22" s="154"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9204,78 +9204,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="170" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="172"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="156" t="s">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9305,30 +9305,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="159" t="s">
+      <c r="AC3" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="161" t="s">
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="163" t="s">
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="165" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="151" t="s">
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="153" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="166" t="s">
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="157" t="s">
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="158"/>
+      <c r="AN3" s="160"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74"/>
@@ -10076,17 +10076,17 @@
       <c r="Y16" s="142"/>
       <c r="Z16" s="142"/>
       <c r="AA16" s="142"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="177"/>
-      <c r="AF16" s="177"/>
-      <c r="AG16" s="177"/>
-      <c r="AH16" s="177"/>
-      <c r="AI16" s="177"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="177"/>
-      <c r="AL16" s="177"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
       <c r="AM16" s="124"/>
       <c r="AN16" s="146"/>
     </row>
@@ -10892,14 +10892,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="174" t="s">
+      <c r="AE1" s="176" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10929,30 +10929,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="159" t="s">
+      <c r="AC2" s="161" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="161" t="s">
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="163" t="s">
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="165" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="151" t="s">
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="153" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="166" t="s">
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="157" t="s">
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="158"/>
+      <c r="AN2" s="160"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1031,7 +1031,7 @@
     <t>GARCIA CASTAÑEDA MARISOL</t>
   </si>
   <si>
-    <t>SEMANA 35      DEL    29    AL   04  SEPTIEMBRE  2022</t>
+    <t>SEMANA 39      DEL    26    AL  02  OCTUBRE  2022</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2369,6 +2369,27 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9493,8 +9514,8 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
       <c r="AE5" s="90"/>
       <c r="AF5" s="93"/>
       <c r="AG5" s="90"/>
@@ -9550,19 +9571,19 @@
       </c>
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="94"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="65"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="179"/>
+      <c r="AG6" s="178"/>
+      <c r="AH6" s="180"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="181"/>
+      <c r="AK6" s="178"/>
+      <c r="AL6" s="180"/>
+      <c r="AM6" s="178"/>
+      <c r="AN6" s="130"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74">
@@ -9599,8 +9620,8 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
       <c r="AE7" s="90"/>
       <c r="AF7" s="93"/>
       <c r="AG7" s="90"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="290">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,10 +1028,7 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>GARCIA CASTAÑEDA MARISOL</t>
-  </si>
-  <si>
-    <t>SEMANA 39      DEL    26    AL  02  OCTUBRE  2022</t>
+    <t>SEMANA 44      DEL   31   AL  06  NOVIEMBRE   2022</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1960,12 +1957,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2292,6 +2428,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2370,25 +2509,58 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3194,11 +3366,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="152" t="s">
+      <c r="Y1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8456,17 +8628,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="155"/>
+      <c r="C3" s="156"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="155"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8483,10 +8655,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="154" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="155"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8495,10 +8667,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="157"/>
+      <c r="C17" s="158"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8507,10 +8679,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="154" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="154"/>
+      <c r="C22" s="155"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8574,7 +8746,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9225,78 +9397,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="172"/>
+      <c r="A1" s="171" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="173"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="158" t="s">
+      <c r="A2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9326,32 +9498,32 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="161" t="s">
+      <c r="AC3" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="163" t="s">
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="165" t="s">
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="153" t="s">
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="168" t="s">
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="159" t="s">
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="160"/>
-    </row>
-    <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AN3" s="161"/>
+    </row>
+    <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="76" t="s">
         <v>1</v>
@@ -9438,38 +9610,38 @@
       <c r="AD4" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="92" t="s">
+      <c r="AF4" s="180" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="88" t="s">
+      <c r="AG4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="95" t="s">
+      <c r="AH4" s="181" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="88" t="s">
+      <c r="AI4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="97" t="s">
+      <c r="AJ4" s="182" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="88" t="s">
+      <c r="AK4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="99" t="s">
+      <c r="AL4" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="88" t="s">
+      <c r="AM4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="89" t="s">
+      <c r="AN4" s="184" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>1</v>
       </c>
@@ -9513,27 +9685,25 @@
       </c>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="96"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="65"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="195"/>
+      <c r="AD5" s="195"/>
+      <c r="AE5" s="195"/>
+      <c r="AF5" s="195"/>
+      <c r="AG5" s="195"/>
+      <c r="AH5" s="196"/>
+      <c r="AI5" s="190"/>
+      <c r="AJ5" s="192"/>
+      <c r="AK5" s="190"/>
+      <c r="AL5" s="193"/>
+      <c r="AM5" s="194"/>
+      <c r="AN5" s="191"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="137" t="s">
-        <v>289</v>
-      </c>
+      <c r="B6" s="137"/>
       <c r="C6" s="82" t="s">
         <v>133</v>
       </c>
@@ -9572,18 +9742,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="178"/>
-      <c r="AH6" s="180"/>
-      <c r="AI6" s="178"/>
-      <c r="AJ6" s="181"/>
-      <c r="AK6" s="178"/>
-      <c r="AL6" s="180"/>
-      <c r="AM6" s="178"/>
-      <c r="AN6" s="130"/>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="186"/>
+      <c r="AF6" s="187"/>
+      <c r="AG6" s="186"/>
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="186"/>
+      <c r="AJ6" s="189"/>
+      <c r="AK6" s="186"/>
+      <c r="AL6" s="188"/>
+      <c r="AM6" s="186"/>
+      <c r="AN6" s="152"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74">
@@ -9620,8 +9790,8 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
       <c r="AE7" s="90"/>
       <c r="AF7" s="93"/>
       <c r="AG7" s="90"/>
@@ -10913,14 +11083,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="176" t="s">
+      <c r="AE1" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="177"/>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="177"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -10950,30 +11120,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="161" t="s">
+      <c r="AC2" s="162" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="163" t="s">
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="165" t="s">
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="153" t="s">
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="168" t="s">
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="159" t="s">
+      <c r="AL2" s="170"/>
+      <c r="AM2" s="160" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="160"/>
+      <c r="AN2" s="161"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="291">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,7 +1028,10 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>SEMANA 44      DEL   31   AL  06  NOVIEMBRE   2022</t>
+    <t>ROMERO BALEON MARIBEL</t>
+  </si>
+  <si>
+    <t>SEMANA 44      DEL   31   AL  06   NOVIEMBRE   2022</t>
   </si>
 </sst>
 </file>
@@ -2431,6 +2434,60 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2508,60 +2565,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3366,11 +3369,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="153" t="s">
+      <c r="Y1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8628,17 +8631,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="156"/>
+      <c r="C3" s="174"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="172" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="155"/>
+      <c r="C5" s="173"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8655,10 +8658,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="173"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8667,10 +8670,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="158"/>
+      <c r="C17" s="176"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8679,10 +8682,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="155"/>
+      <c r="C22" s="173"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8746,7 +8749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9397,78 +9400,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="173"/>
+      <c r="A1" s="189" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="191"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="159" t="s">
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9498,30 +9501,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="162" t="s">
+      <c r="AC3" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="164" t="s">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="182" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="166" t="s">
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="154" t="s">
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="169" t="s">
+      <c r="AJ3" s="186"/>
+      <c r="AK3" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="160" t="s">
+      <c r="AL3" s="188"/>
+      <c r="AM3" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="161"/>
+      <c r="AN3" s="179"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9610,34 +9613,34 @@
       <c r="AD4" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="179" t="s">
+      <c r="AE4" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="180" t="s">
+      <c r="AF4" s="154" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="179" t="s">
+      <c r="AG4" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="181" t="s">
+      <c r="AH4" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="179" t="s">
+      <c r="AI4" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="182" t="s">
+      <c r="AJ4" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="179" t="s">
+      <c r="AK4" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="183" t="s">
+      <c r="AL4" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="179" t="s">
+      <c r="AM4" s="153" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="184" t="s">
+      <c r="AN4" s="158" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9686,24 +9689,26 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="195"/>
-      <c r="AD5" s="195"/>
-      <c r="AE5" s="195"/>
-      <c r="AF5" s="195"/>
-      <c r="AG5" s="195"/>
-      <c r="AH5" s="196"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="192"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="193"/>
-      <c r="AM5" s="194"/>
-      <c r="AN5" s="191"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="168"/>
+      <c r="AN5" s="165"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="137" t="s">
+        <v>289</v>
+      </c>
       <c r="C6" s="82" t="s">
         <v>133</v>
       </c>
@@ -9742,17 +9747,17 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="185"/>
-      <c r="AD6" s="185"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="187"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="189"/>
-      <c r="AK6" s="186"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="186"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="160"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="160"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="160"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="160"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="160"/>
       <c r="AN6" s="152"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11083,14 +11088,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="177" t="s">
+      <c r="AE1" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11120,30 +11125,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="162" t="s">
+      <c r="AC2" s="180" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="164" t="s">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="182" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="166" t="s">
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="154" t="s">
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="169" t="s">
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="170"/>
-      <c r="AM2" s="160" t="s">
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="161"/>
+      <c r="AN2" s="179"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="290">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1016,9 +1016,6 @@
     <t>L U N E S</t>
   </si>
   <si>
-    <t>LARIOS AYALA SERGIO</t>
-  </si>
-  <si>
     <t>HERNANDEZ TELLEZ ERICK</t>
   </si>
   <si>
@@ -1031,7 +1028,7 @@
     <t>ROMERO BALEON MARIBEL</t>
   </si>
   <si>
-    <t>SEMANA 44      DEL   31   AL  06   NOVIEMBRE   2022</t>
+    <t>SEMANA 49      DEL   05  AL  11     DICIEMBRE   2022</t>
   </si>
 </sst>
 </file>
@@ -8748,7 +8745,7 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9401,7 +9398,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="190"/>
       <c r="C1" s="190"/>
@@ -9649,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>133</v>
@@ -9707,7 +9704,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>133</v>
@@ -9765,7 +9762,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>133</v>
@@ -9860,9 +9857,7 @@
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="138" t="s">
-        <v>285</v>
-      </c>
+      <c r="B9" s="138"/>
       <c r="C9" s="133" t="s">
         <v>277</v>
       </c>
@@ -10091,7 +10086,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="132" t="s">
         <v>124</v>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1025,10 +1025,10 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t>ROMERO BALEON MARIBEL</t>
-  </si>
-  <si>
-    <t>SEMANA 49      DEL   05  AL  11     DICIEMBRE   2022</t>
+    <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
+  </si>
+  <si>
+    <t>SEMANA 01     DEL   02  AL  08    E N E R O    2023</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2398,9 +2398,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2562,6 +2559,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3366,11 +3369,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="171" t="s">
+      <c r="Y1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8628,17 +8631,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="173" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="173"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="171" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="172"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8655,10 +8658,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="173"/>
+      <c r="C12" s="172"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8667,10 +8670,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="176"/>
+      <c r="C17" s="175"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8679,10 +8682,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="173"/>
+      <c r="C22" s="172"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8745,8 +8748,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9397,78 +9400,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="190"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="192"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="177" t="s">
+      <c r="A2" s="191"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="192"/>
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="176" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9498,30 +9501,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="180" t="s">
+      <c r="AC3" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="182" t="s">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="181" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="184" t="s">
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="172" t="s">
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="186"/>
-      <c r="AK3" s="187" t="s">
+      <c r="AJ3" s="185"/>
+      <c r="AK3" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="188"/>
-      <c r="AM3" s="178" t="s">
+      <c r="AL3" s="187"/>
+      <c r="AM3" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="179"/>
+      <c r="AN3" s="178"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9610,34 +9613,34 @@
       <c r="AD4" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="153" t="s">
+      <c r="AE4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="154" t="s">
+      <c r="AF4" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="153" t="s">
+      <c r="AG4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="155" t="s">
+      <c r="AH4" s="154" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="153" t="s">
+      <c r="AI4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="156" t="s">
+      <c r="AJ4" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="153" t="s">
+      <c r="AK4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="157" t="s">
+      <c r="AL4" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="153" t="s">
+      <c r="AM4" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="158" t="s">
+      <c r="AN4" s="157" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9686,28 +9689,28 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="168"/>
-      <c r="AN5" s="165"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="164"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>133</v>
+      <c r="B6" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>124</v>
       </c>
       <c r="D6" s="66">
         <v>40969</v>
@@ -9744,28 +9747,28 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="160"/>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="162"/>
-      <c r="AM6" s="160"/>
-      <c r="AN6" s="152"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="160"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="159"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="159"/>
+      <c r="AN6" s="151"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="137" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>133</v>
+      <c r="B7" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="17"/>
@@ -9792,8 +9795,8 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
+      <c r="AC7" s="151"/>
+      <c r="AD7" s="151"/>
       <c r="AE7" s="90"/>
       <c r="AF7" s="93"/>
       <c r="AG7" s="90"/>
@@ -9809,11 +9812,11 @@
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>33</v>
+      <c r="B8" s="137" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="17"/>
@@ -9853,13 +9856,15 @@
       <c r="AM8" s="94"/>
       <c r="AN8" s="65"/>
     </row>
-    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="133" t="s">
-        <v>277</v>
+      <c r="B9" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="66">
         <v>41225</v>
@@ -9911,11 +9916,11 @@
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="136" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>277</v>
+      <c r="B10" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="132" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="66">
         <v>41852</v>
@@ -9967,11 +9972,11 @@
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="133" t="s">
-        <v>124</v>
+      <c r="B11" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>277</v>
       </c>
       <c r="D11" s="66">
         <v>42128</v>
@@ -10025,11 +10030,11 @@
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="133" t="s">
-        <v>124</v>
+      <c r="B12" s="137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="73">
         <v>42212</v>
@@ -10085,10 +10090,10 @@
       <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="148" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="133" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="66"/>
@@ -10141,8 +10146,8 @@
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="136" t="s">
-        <v>167</v>
+      <c r="B14" s="196" t="s">
+        <v>232</v>
       </c>
       <c r="C14" s="133" t="s">
         <v>124</v>
@@ -10189,104 +10194,96 @@
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="144" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146"/>
-      <c r="W15" s="146"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="146"/>
-      <c r="Z15" s="146"/>
-      <c r="AA15" s="146"/>
-      <c r="AB15" s="146"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="146"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="146"/>
-      <c r="AG15" s="146"/>
-      <c r="AH15" s="146"/>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="146"/>
-      <c r="AK15" s="146"/>
-      <c r="AL15" s="146"/>
-      <c r="AM15" s="146"/>
-      <c r="AN15" s="146"/>
-    </row>
-    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="145"/>
+      <c r="AN15" s="145"/>
+    </row>
+    <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="151"/>
-      <c r="AJ16" s="151"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="141"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="150"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="150"/>
+      <c r="AK16" s="150"/>
+      <c r="AL16" s="150"/>
       <c r="AM16" s="124"/>
-      <c r="AN16" s="146"/>
+      <c r="AN16" s="145"/>
     </row>
     <row r="17" spans="1:40" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="149"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -10362,8 +10359,8 @@
       <c r="AI18" s="70"/>
     </row>
   </sheetData>
-  <sortState ref="B11:C16">
-    <sortCondition ref="B11:B16"/>
+  <sortState ref="B5:C15">
+    <sortCondition ref="B5:B15"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>
@@ -11083,14 +11080,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="195" t="s">
+      <c r="AE1" s="194" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="196"/>
-      <c r="AJ1" s="196"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="195"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="195"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11120,30 +11117,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="180" t="s">
+      <c r="AC2" s="179" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="182" t="s">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="181" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="184" t="s">
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="172" t="s">
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="187" t="s">
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="178" t="s">
+      <c r="AL2" s="187"/>
+      <c r="AM2" s="177" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="179"/>
+      <c r="AN2" s="178"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA 01     DEL   02  AL  08    E N E R O    2023</t>
+    <t>SEMANA 05     DEL   30  AL  05   F E B R E R O    2023</t>
   </si>
 </sst>
 </file>
@@ -2482,6 +2482,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2559,12 +2565,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3369,11 +3369,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="170" t="s">
+      <c r="Y1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8631,17 +8631,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="173"/>
+      <c r="C3" s="175"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="173" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="172"/>
+      <c r="C5" s="174"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8658,10 +8658,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="173" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="172"/>
+      <c r="C12" s="174"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8670,10 +8670,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="177"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8682,10 +8682,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="172"/>
+      <c r="C22" s="174"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8749,7 +8749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AD2"/>
+      <selection pane="bottomLeft" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9400,78 +9400,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
-      <c r="AD1" s="190"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="192"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="192"/>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="176" t="s">
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="178" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="176"/>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="176"/>
-      <c r="AJ2" s="176"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="135"/>
@@ -9501,30 +9501,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="179" t="s">
+      <c r="AC3" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="181" t="s">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="183" t="s">
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="185" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="184"/>
-      <c r="AI3" s="171" t="s">
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="173" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="185"/>
-      <c r="AK3" s="186" t="s">
+      <c r="AJ3" s="187"/>
+      <c r="AK3" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="187"/>
-      <c r="AM3" s="177" t="s">
+      <c r="AL3" s="189"/>
+      <c r="AM3" s="179" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="178"/>
+      <c r="AN3" s="180"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9957,8 +9957,8 @@
       <c r="AB10" s="19"/>
       <c r="AC10" s="130"/>
       <c r="AD10" s="130"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="93"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
       <c r="AG10" s="90"/>
       <c r="AH10" s="96"/>
       <c r="AI10" s="94"/>
@@ -10146,7 +10146,7 @@
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="170" t="s">
         <v>232</v>
       </c>
       <c r="C14" s="133" t="s">
@@ -10238,7 +10238,7 @@
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="197"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="139"/>
       <c r="D16" s="140"/>
       <c r="E16" s="141"/>
@@ -11080,14 +11080,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="194" t="s">
+      <c r="AE1" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11117,30 +11117,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="179" t="s">
+      <c r="AC2" s="181" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="181" t="s">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="183" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="183" t="s">
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="185" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="171" t="s">
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="173" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="185"/>
-      <c r="AK2" s="186" t="s">
+      <c r="AJ2" s="187"/>
+      <c r="AK2" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="187"/>
-      <c r="AM2" s="177" t="s">
+      <c r="AL2" s="189"/>
+      <c r="AM2" s="179" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="178"/>
+      <c r="AN2" s="180"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA 05     DEL   30  AL  05   F E B R E R O    2023</t>
+    <t>SEMANA 10     DEL   06   AL  12     M A R Z O     2023</t>
   </si>
 </sst>
 </file>
@@ -8749,7 +8749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC5" sqref="AC5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="291">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,7 +1028,10 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA 10     DEL   06   AL  12     M A R Z O     2023</t>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>SEMANA 14   DEL   03   AL  09      ABRIL       2023</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,6 +1244,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1322,7 +1331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2096,12 +2105,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2342,30 +2442,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2464,9 +2540,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2565,6 +2638,106 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3369,11 +3542,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="172" t="s">
+      <c r="Y1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8631,17 +8804,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="166" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="166"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" s="165"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8658,10 +8831,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="174"/>
+      <c r="C12" s="165"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8670,10 +8843,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="177"/>
+      <c r="C17" s="168"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8682,10 +8855,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="174"/>
+      <c r="C22" s="165"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9400,81 +9573,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="192"/>
+      <c r="A1" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="183"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="178" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="178"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="135"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="106"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
@@ -9501,30 +9674,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="181" t="s">
+      <c r="AC3" s="172" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="183" t="s">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="185" t="s">
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="173" t="s">
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="187"/>
-      <c r="AK3" s="188" t="s">
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="179" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="189"/>
-      <c r="AM3" s="179" t="s">
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="180"/>
+      <c r="AN3" s="171"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9607,40 +9780,40 @@
       <c r="AB4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="128" t="s">
+      <c r="AC4" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="AD4" s="129" t="s">
+      <c r="AD4" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="152" t="s">
+      <c r="AE4" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="153" t="s">
+      <c r="AF4" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="152" t="s">
+      <c r="AG4" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="154" t="s">
+      <c r="AH4" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="152" t="s">
+      <c r="AI4" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="155" t="s">
+      <c r="AJ4" s="147" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="152" t="s">
+      <c r="AK4" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="156" t="s">
+      <c r="AL4" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="152" t="s">
+      <c r="AM4" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="157" t="s">
+      <c r="AN4" s="149" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9651,7 +9824,7 @@
       <c r="B5" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="125" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="66">
@@ -9689,18 +9862,18 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="168"/>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="164"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="155"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="155"/>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="213"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
@@ -9709,7 +9882,7 @@
       <c r="B6" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="125" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="66">
@@ -9747,18 +9920,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="159"/>
-      <c r="AN6" s="151"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="151"/>
+      <c r="AL6" s="153"/>
+      <c r="AM6" s="151"/>
+      <c r="AN6" s="154"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74">
@@ -9767,7 +9940,7 @@
       <c r="B7" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="125" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="66"/>
@@ -9795,8 +9968,8 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="152"/>
       <c r="AE7" s="90"/>
       <c r="AF7" s="93"/>
       <c r="AG7" s="90"/>
@@ -9806,13 +9979,13 @@
       <c r="AK7" s="94"/>
       <c r="AL7" s="100"/>
       <c r="AM7" s="94"/>
-      <c r="AN7" s="65"/>
-    </row>
-    <row r="8" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN7" s="98"/>
+    </row>
+    <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="129" t="s">
         <v>288</v>
       </c>
       <c r="C8" s="82" t="s">
@@ -9843,27 +10016,27 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="65"/>
-    </row>
-    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="216"/>
+      <c r="AE8" s="217"/>
+      <c r="AF8" s="218"/>
+      <c r="AG8" s="217"/>
+      <c r="AH8" s="219"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="211"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="211"/>
+    </row>
+    <row r="9" spans="1:40" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="128" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="126" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="66">
@@ -9898,28 +10071,30 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="65"/>
-    </row>
-    <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="223" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD9" s="224"/>
+      <c r="AE9" s="199"/>
+      <c r="AF9" s="222"/>
+      <c r="AG9" s="199"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="199"/>
+      <c r="AJ9" s="209"/>
+      <c r="AK9" s="199"/>
+      <c r="AL9" s="207"/>
+      <c r="AM9" s="199"/>
+      <c r="AN9" s="209"/>
+    </row>
+    <row r="10" spans="1:40" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="124" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="66">
@@ -9955,24 +10130,24 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="127"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="65"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="221"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="210"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="128" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="82" t="s">
@@ -10013,8 +10188,8 @@
       <c r="AB11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="202"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="93"/>
       <c r="AG11" s="90"/>
@@ -10024,13 +10199,13 @@
       <c r="AK11" s="94"/>
       <c r="AL11" s="100"/>
       <c r="AM11" s="94"/>
-      <c r="AN11" s="65"/>
+      <c r="AN11" s="98"/>
     </row>
     <row r="12" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="129" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="82" t="s">
@@ -10073,27 +10248,27 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="122"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="216"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="193"/>
+      <c r="AJ12" s="194"/>
+      <c r="AK12" s="193"/>
+      <c r="AL12" s="195"/>
+      <c r="AM12" s="196"/>
+      <c r="AN12" s="214"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="125" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="66"/>
@@ -10128,31 +10303,31 @@
       </c>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="199"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="199"/>
+      <c r="AJ13" s="209"/>
+      <c r="AK13" s="199"/>
+      <c r="AL13" s="207"/>
+      <c r="AM13" s="199"/>
+      <c r="AN13" s="209"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="65"/>
       <c r="F14" s="2"/>
       <c r="G14" s="65"/>
@@ -10177,113 +10352,113 @@
       <c r="Z14" s="65"/>
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="204"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="210"/>
+      <c r="AK14" s="118"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="118"/>
+      <c r="AN14" s="210"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="145"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="145"/>
-      <c r="AM15" s="145"/>
-      <c r="AN15" s="145"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="205"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="205"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="116"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="116"/>
+      <c r="AN15" s="211"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="141"/>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="141"/>
-      <c r="AA16" s="141"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="150"/>
-      <c r="AI16" s="150"/>
-      <c r="AJ16" s="150"/>
-      <c r="AK16" s="150"/>
-      <c r="AL16" s="150"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="145"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="206"/>
+      <c r="AE16" s="200"/>
+      <c r="AF16" s="206"/>
+      <c r="AG16" s="200"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="200"/>
+      <c r="AJ16" s="212"/>
+      <c r="AK16" s="200"/>
+      <c r="AL16" s="208"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="98"/>
     </row>
     <row r="17" spans="1:40" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="148"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -10362,7 +10537,8 @@
   <sortState ref="B5:C15">
     <sortCondition ref="B5:B15"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11080,14 +11256,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="196" t="s">
+      <c r="AE1" s="187" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="188"/>
+      <c r="AJ1" s="188"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11117,30 +11293,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="181" t="s">
+      <c r="AC2" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="183" t="s">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="185" t="s">
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="173" t="s">
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="164" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="187"/>
-      <c r="AK2" s="188" t="s">
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="179" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="179" t="s">
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="180"/>
+      <c r="AN2" s="171"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,10 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>VACACIONES</t>
-  </si>
-  <si>
-    <t>SEMANA 14   DEL   03   AL  09      ABRIL       2023</t>
+    <t>SEMANA 18   DEL   01   AL  07     MAYO       2023</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2170,38 +2167,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2561,84 +2532,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2733,11 +2626,83 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3542,11 +3507,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="163" t="s">
+      <c r="Y1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8804,17 +8769,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="200" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="166"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="198" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="199"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8831,10 +8796,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="198" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="165"/>
+      <c r="C12" s="199"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8843,10 +8808,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="167" t="s">
+      <c r="B17" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="168"/>
+      <c r="C17" s="202"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8855,10 +8820,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="198" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="165"/>
+      <c r="C22" s="199"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9573,78 +9538,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="183"/>
+      <c r="A1" s="215" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="217"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="169" t="s">
+      <c r="A2" s="218"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="219"/>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="203" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="203"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="127"/>
@@ -9674,30 +9639,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="172" t="s">
+      <c r="AC3" s="206" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="174" t="s">
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="208" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="176" t="s">
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="164" t="s">
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="198" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="179" t="s">
+      <c r="AJ3" s="212"/>
+      <c r="AK3" s="213" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="170" t="s">
+      <c r="AL3" s="214"/>
+      <c r="AM3" s="204" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="205"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9863,17 +9828,17 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
       <c r="AC5" s="159"/>
-      <c r="AD5" s="201"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="201"/>
-      <c r="AG5" s="198"/>
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="172"/>
       <c r="AH5" s="160"/>
       <c r="AI5" s="155"/>
       <c r="AJ5" s="156"/>
       <c r="AK5" s="155"/>
       <c r="AL5" s="157"/>
       <c r="AM5" s="158"/>
-      <c r="AN5" s="213"/>
+      <c r="AN5" s="187"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
@@ -9921,7 +9886,7 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
       <c r="AC6" s="150"/>
-      <c r="AD6" s="215"/>
+      <c r="AD6" s="189"/>
       <c r="AE6" s="151"/>
       <c r="AF6" s="152"/>
       <c r="AG6" s="151"/>
@@ -9981,7 +9946,7 @@
       <c r="AM7" s="94"/>
       <c r="AN7" s="98"/>
     </row>
-    <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74">
         <v>4</v>
       </c>
@@ -10016,20 +9981,20 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
-      <c r="AC8" s="189"/>
-      <c r="AD8" s="216"/>
-      <c r="AE8" s="217"/>
-      <c r="AF8" s="218"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="219"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="192"/>
+      <c r="AG8" s="191"/>
+      <c r="AH8" s="193"/>
       <c r="AI8" s="116"/>
-      <c r="AJ8" s="211"/>
+      <c r="AJ8" s="185"/>
       <c r="AK8" s="116"/>
       <c r="AL8" s="117"/>
       <c r="AM8" s="116"/>
-      <c r="AN8" s="211"/>
-    </row>
-    <row r="9" spans="1:40" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN8" s="185"/>
+    </row>
+    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
         <v>5</v>
       </c>
@@ -10072,22 +10037,20 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
-      <c r="AC9" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="199"/>
-      <c r="AF9" s="222"/>
-      <c r="AG9" s="199"/>
-      <c r="AH9" s="207"/>
-      <c r="AI9" s="199"/>
-      <c r="AJ9" s="209"/>
-      <c r="AK9" s="199"/>
-      <c r="AL9" s="207"/>
-      <c r="AM9" s="199"/>
-      <c r="AN9" s="209"/>
-    </row>
-    <row r="10" spans="1:40" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="196"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="183"/>
+      <c r="AK9" s="173"/>
+      <c r="AL9" s="181"/>
+      <c r="AM9" s="173"/>
+      <c r="AN9" s="183"/>
+    </row>
+    <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
         <v>6</v>
       </c>
@@ -10134,14 +10097,14 @@
       <c r="AD10" s="152"/>
       <c r="AE10" s="151"/>
       <c r="AF10" s="152"/>
-      <c r="AG10" s="220"/>
-      <c r="AH10" s="221"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="195"/>
       <c r="AI10" s="118"/>
-      <c r="AJ10" s="210"/>
+      <c r="AJ10" s="184"/>
       <c r="AK10" s="118"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="118"/>
-      <c r="AN10" s="210"/>
+      <c r="AN10" s="184"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
@@ -10189,7 +10152,7 @@
         <v>186</v>
       </c>
       <c r="AC11" s="122"/>
-      <c r="AD11" s="202"/>
+      <c r="AD11" s="176"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="93"/>
       <c r="AG11" s="90"/>
@@ -10248,18 +10211,18 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="216"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="192"/>
-      <c r="AI12" s="193"/>
-      <c r="AJ12" s="194"/>
-      <c r="AK12" s="193"/>
-      <c r="AL12" s="195"/>
-      <c r="AM12" s="196"/>
-      <c r="AN12" s="214"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="166"/>
+      <c r="AI12" s="167"/>
+      <c r="AJ12" s="168"/>
+      <c r="AK12" s="167"/>
+      <c r="AL12" s="169"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="188"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
@@ -10304,18 +10267,18 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="203"/>
-      <c r="AG13" s="199"/>
-      <c r="AH13" s="207"/>
-      <c r="AI13" s="199"/>
-      <c r="AJ13" s="209"/>
-      <c r="AK13" s="199"/>
-      <c r="AL13" s="207"/>
-      <c r="AM13" s="199"/>
-      <c r="AN13" s="209"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="181"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="183"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="181"/>
+      <c r="AM13" s="173"/>
+      <c r="AN13" s="183"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
@@ -10353,17 +10316,17 @@
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
       <c r="AC14" s="101"/>
-      <c r="AD14" s="204"/>
+      <c r="AD14" s="178"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="204"/>
+      <c r="AF14" s="178"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="210"/>
+      <c r="AJ14" s="184"/>
       <c r="AK14" s="118"/>
       <c r="AL14" s="119"/>
       <c r="AM14" s="118"/>
-      <c r="AN14" s="210"/>
+      <c r="AN14" s="184"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
@@ -10397,17 +10360,17 @@
       <c r="AA15" s="137"/>
       <c r="AB15" s="137"/>
       <c r="AC15" s="137"/>
-      <c r="AD15" s="205"/>
+      <c r="AD15" s="179"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="205"/>
+      <c r="AF15" s="179"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="211"/>
+      <c r="AJ15" s="185"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="211"/>
+      <c r="AN15" s="185"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
@@ -10441,15 +10404,15 @@
       <c r="AA16" s="133"/>
       <c r="AB16" s="141"/>
       <c r="AC16" s="142"/>
-      <c r="AD16" s="206"/>
-      <c r="AE16" s="200"/>
-      <c r="AF16" s="206"/>
-      <c r="AG16" s="200"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="200"/>
-      <c r="AJ16" s="212"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="208"/>
+      <c r="AD16" s="180"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="186"/>
+      <c r="AK16" s="174"/>
+      <c r="AL16" s="182"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10537,8 +10500,7 @@
   <sortState ref="B5:C15">
     <sortCondition ref="B5:B15"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="AC9:AD9"/>
+  <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11256,14 +11218,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="187" t="s">
+      <c r="AE1" s="221" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
+      <c r="AF1" s="222"/>
+      <c r="AG1" s="222"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="222"/>
+      <c r="AJ1" s="222"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11293,30 +11255,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="172" t="s">
+      <c r="AC2" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="174" t="s">
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="208" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="176" t="s">
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="164" t="s">
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="198" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="179" t="s">
+      <c r="AJ2" s="212"/>
+      <c r="AK2" s="213" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="170" t="s">
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="204" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="171"/>
+      <c r="AN2" s="205"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA 18   DEL   01   AL  07     MAYO       2023</t>
+    <t>SEMANA 22   DEL   29   AL  04   J U N I O        2023</t>
   </si>
 </sst>
 </file>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA 22   DEL   29   AL  04   J U N I O        2023</t>
+    <t>SEMANA  26  DEL   26   AL   02    J U L I O        2023</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -2167,12 +2167,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2614,9 +2709,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2703,6 +2795,75 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3507,11 +3668,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="197" t="s">
+      <c r="Y1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8769,17 +8930,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="199" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="199"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="199"/>
+      <c r="C5" s="198"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8796,10 +8957,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="197" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="199"/>
+      <c r="C12" s="198"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8808,10 +8969,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="200" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="202"/>
+      <c r="C17" s="201"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8820,10 +8981,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="198" t="s">
+      <c r="B22" s="197" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="199"/>
+      <c r="C22" s="198"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8887,7 +9048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9538,78 +9699,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-      <c r="M1" s="216"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="216"/>
-      <c r="P1" s="216"/>
-      <c r="Q1" s="216"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="216"/>
-      <c r="T1" s="216"/>
-      <c r="U1" s="216"/>
-      <c r="V1" s="216"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="216"/>
-      <c r="Y1" s="216"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="216"/>
-      <c r="AD1" s="217"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="215"/>
+      <c r="AD1" s="216"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="218"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="219"/>
-      <c r="X2" s="219"/>
-      <c r="Y2" s="219"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="219"/>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="219"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="203" t="s">
+      <c r="A2" s="217"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="202" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="202"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="127"/>
@@ -9639,30 +9800,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="206" t="s">
+      <c r="AC3" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="208" t="s">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="210" t="s">
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="209" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="198" t="s">
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="213" t="s">
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="212" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="214"/>
-      <c r="AM3" s="204" t="s">
+      <c r="AL3" s="213"/>
+      <c r="AM3" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="205"/>
+      <c r="AN3" s="204"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9894,11 +10055,11 @@
       <c r="AI6" s="151"/>
       <c r="AJ6" s="154"/>
       <c r="AK6" s="151"/>
-      <c r="AL6" s="153"/>
+      <c r="AL6" s="228"/>
       <c r="AM6" s="151"/>
-      <c r="AN6" s="154"/>
-    </row>
-    <row r="7" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN6" s="230"/>
+    </row>
+    <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
         <v>3</v>
       </c>
@@ -9933,20 +10094,20 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="98"/>
-    </row>
-    <row r="8" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="232"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="192"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="239"/>
+      <c r="AI7" s="241"/>
+      <c r="AJ7" s="242"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="229"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="185"/>
+    </row>
+    <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>4</v>
       </c>
@@ -9980,19 +10141,19 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="192"/>
-      <c r="AG8" s="191"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="185"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="185"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="225"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="237"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="243"/>
+      <c r="AJ8" s="244"/>
+      <c r="AK8" s="226"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="226"/>
+      <c r="AN8" s="231"/>
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
@@ -10037,18 +10198,18 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="196"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="183"/>
-      <c r="AK9" s="173"/>
-      <c r="AL9" s="181"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="183"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="234"/>
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="195"/>
+      <c r="AG9" s="223"/>
+      <c r="AH9" s="240"/>
+      <c r="AI9" s="245"/>
+      <c r="AJ9" s="246"/>
+      <c r="AK9" s="223"/>
+      <c r="AL9" s="227"/>
+      <c r="AM9" s="223"/>
+      <c r="AN9" s="224"/>
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
@@ -10097,8 +10258,8 @@
       <c r="AD10" s="152"/>
       <c r="AE10" s="151"/>
       <c r="AF10" s="152"/>
-      <c r="AG10" s="194"/>
-      <c r="AH10" s="195"/>
+      <c r="AG10" s="193"/>
+      <c r="AH10" s="194"/>
       <c r="AI10" s="118"/>
       <c r="AJ10" s="184"/>
       <c r="AK10" s="118"/>
@@ -11218,14 +11379,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="221" t="s">
+      <c r="AE1" s="220" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="221"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="221"/>
+      <c r="AJ1" s="221"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11255,30 +11416,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="206" t="s">
+      <c r="AC2" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="208" t="s">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="210" t="s">
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="198" t="s">
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="212"/>
-      <c r="AK2" s="213" t="s">
+      <c r="AJ2" s="211"/>
+      <c r="AK2" s="212" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="204" t="s">
+      <c r="AL2" s="213"/>
+      <c r="AM2" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="205"/>
+      <c r="AN2" s="204"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="291">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,7 +1028,10 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA  26  DEL   26   AL   02    J U L I O        2023</t>
+    <t xml:space="preserve">V A C A C I O N E S </t>
+  </si>
+  <si>
+    <t>SEMANA  31   DEL   31    AL   06    AGOSTO        2023</t>
   </si>
 </sst>
 </file>
@@ -2047,51 +2050,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -2126,19 +2088,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2171,18 +2120,70 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="mediumDashed">
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2199,19 +2200,35 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -2224,42 +2241,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2267,7 +2252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2588,281 +2573,271 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3668,11 +3643,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="196" t="s">
+      <c r="Y1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8930,17 +8905,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="205" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="205"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="203" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="198"/>
+      <c r="C5" s="204"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8957,10 +8932,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="198"/>
+      <c r="C12" s="204"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8969,10 +8944,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="206" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="207"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8981,10 +8956,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="203" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="198"/>
+      <c r="C22" s="204"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9048,7 +9023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9699,78 +9674,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="216"/>
+      <c r="A1" s="220" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="221"/>
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="221"/>
+      <c r="AD1" s="222"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="202" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="208" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="208"/>
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="208"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="127"/>
@@ -9800,30 +9775,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="205" t="s">
+      <c r="AC3" s="211" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="207" t="s">
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="213" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="208"/>
-      <c r="AG3" s="209" t="s">
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="215" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="197" t="s">
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="212" t="s">
+      <c r="AJ3" s="217"/>
+      <c r="AK3" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="213"/>
-      <c r="AM3" s="203" t="s">
+      <c r="AL3" s="219"/>
+      <c r="AM3" s="209" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="204"/>
+      <c r="AN3" s="210"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9988,20 +9963,20 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="155"/>
-      <c r="AJ5" s="156"/>
-      <c r="AK5" s="155"/>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="187"/>
-    </row>
-    <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="239"/>
+      <c r="AI5" s="240"/>
+      <c r="AJ5" s="241"/>
+      <c r="AK5" s="240"/>
+      <c r="AL5" s="242"/>
+      <c r="AM5" s="243"/>
+      <c r="AN5" s="244"/>
+    </row>
+    <row r="6" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>2</v>
       </c>
@@ -10046,18 +10021,20 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="189"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="228"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="230"/>
+      <c r="AC6" s="236" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD6" s="237"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="163"/>
+      <c r="AL6" s="163"/>
+      <c r="AM6" s="163"/>
+      <c r="AN6" s="163"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
@@ -10094,18 +10071,18 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="222"/>
-      <c r="AD7" s="232"/>
-      <c r="AE7" s="235"/>
-      <c r="AF7" s="192"/>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="239"/>
-      <c r="AI7" s="241"/>
-      <c r="AJ7" s="242"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="229"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="185"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="228"/>
+      <c r="AF7" s="229"/>
+      <c r="AG7" s="230"/>
+      <c r="AH7" s="231"/>
+      <c r="AI7" s="232"/>
+      <c r="AJ7" s="233"/>
+      <c r="AK7" s="234"/>
+      <c r="AL7" s="189"/>
+      <c r="AM7" s="234"/>
+      <c r="AN7" s="235"/>
     </row>
     <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
@@ -10142,18 +10119,18 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="112"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="233"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="237"/>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="233"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="244"/>
-      <c r="AK8" s="226"/>
+      <c r="AC8" s="186"/>
+      <c r="AD8" s="192"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="195"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="198"/>
+      <c r="AJ8" s="199"/>
+      <c r="AK8" s="187"/>
       <c r="AL8" s="100"/>
-      <c r="AM8" s="226"/>
-      <c r="AN8" s="231"/>
+      <c r="AM8" s="187"/>
+      <c r="AN8" s="190"/>
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
@@ -10199,17 +10176,17 @@
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
       <c r="AC9" s="143"/>
-      <c r="AD9" s="234"/>
-      <c r="AE9" s="238"/>
-      <c r="AF9" s="195"/>
-      <c r="AG9" s="223"/>
-      <c r="AH9" s="240"/>
-      <c r="AI9" s="245"/>
-      <c r="AJ9" s="246"/>
-      <c r="AK9" s="223"/>
-      <c r="AL9" s="227"/>
-      <c r="AM9" s="223"/>
-      <c r="AN9" s="224"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="184"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="200"/>
+      <c r="AJ9" s="201"/>
+      <c r="AK9" s="184"/>
+      <c r="AL9" s="188"/>
+      <c r="AM9" s="184"/>
+      <c r="AN9" s="185"/>
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
@@ -10255,17 +10232,17 @@
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="143"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="193"/>
-      <c r="AH10" s="194"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="180"/>
+      <c r="AH10" s="181"/>
       <c r="AI10" s="118"/>
-      <c r="AJ10" s="184"/>
+      <c r="AJ10" s="175"/>
       <c r="AK10" s="118"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="118"/>
-      <c r="AN10" s="184"/>
+      <c r="AN10" s="175"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
@@ -10313,7 +10290,7 @@
         <v>186</v>
       </c>
       <c r="AC11" s="122"/>
-      <c r="AD11" s="176"/>
+      <c r="AD11" s="167"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="93"/>
       <c r="AG11" s="90"/>
@@ -10372,18 +10349,18 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="167"/>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="170"/>
-      <c r="AN12" s="188"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="179"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="159"/>
+      <c r="AL12" s="161"/>
+      <c r="AM12" s="162"/>
+      <c r="AN12" s="178"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
@@ -10428,24 +10405,24 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="171"/>
-      <c r="AE13" s="171"/>
-      <c r="AF13" s="177"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="181"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="183"/>
-      <c r="AK13" s="173"/>
-      <c r="AL13" s="181"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="183"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="164"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="164"/>
+      <c r="AJ13" s="174"/>
+      <c r="AK13" s="164"/>
+      <c r="AL13" s="172"/>
+      <c r="AM13" s="164"/>
+      <c r="AN13" s="174"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="153" t="s">
         <v>232</v>
       </c>
       <c r="C14" s="125" t="s">
@@ -10477,17 +10454,17 @@
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
       <c r="AC14" s="101"/>
-      <c r="AD14" s="178"/>
+      <c r="AD14" s="169"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="178"/>
+      <c r="AF14" s="169"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="184"/>
+      <c r="AJ14" s="175"/>
       <c r="AK14" s="118"/>
       <c r="AL14" s="119"/>
       <c r="AM14" s="118"/>
-      <c r="AN14" s="184"/>
+      <c r="AN14" s="175"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
@@ -10521,23 +10498,23 @@
       <c r="AA15" s="137"/>
       <c r="AB15" s="137"/>
       <c r="AC15" s="137"/>
-      <c r="AD15" s="179"/>
+      <c r="AD15" s="170"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="179"/>
+      <c r="AF15" s="170"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="185"/>
+      <c r="AJ15" s="176"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="185"/>
+      <c r="AN15" s="176"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="162"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="131"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -10565,15 +10542,15 @@
       <c r="AA16" s="133"/>
       <c r="AB16" s="141"/>
       <c r="AC16" s="142"/>
-      <c r="AD16" s="180"/>
-      <c r="AE16" s="174"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="174"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="174"/>
-      <c r="AJ16" s="186"/>
-      <c r="AK16" s="174"/>
-      <c r="AL16" s="182"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="171"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="165"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="165"/>
+      <c r="AL16" s="173"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10661,7 +10638,8 @@
   <sortState ref="B5:C15">
     <sortCondition ref="B5:B15"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11379,14 +11357,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="220" t="s">
+      <c r="AE1" s="226" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="221"/>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="221"/>
-      <c r="AJ1" s="221"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
+      <c r="AH1" s="227"/>
+      <c r="AI1" s="227"/>
+      <c r="AJ1" s="227"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11416,30 +11394,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="205" t="s">
+      <c r="AC2" s="211" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="207" t="s">
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="213" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="197" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="212" t="s">
+      <c r="AJ2" s="217"/>
+      <c r="AK2" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="213"/>
-      <c r="AM2" s="203" t="s">
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="209" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="204"/>
+      <c r="AN2" s="210"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1026,9 +1026,6 @@
   </si>
   <si>
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V A C A C I O N E S </t>
   </si>
   <si>
     <t>SEMANA  31   DEL   31    AL   06    AGOSTO        2023</t>
@@ -2252,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2579,9 +2576,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2620,9 +2614,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2719,84 +2710,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2813,12 +2726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2838,6 +2745,87 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3643,11 +3631,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="202" t="s">
+      <c r="Y1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8905,17 +8893,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="218" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="218"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="204"/>
+      <c r="C5" s="217"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8932,10 +8920,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="216" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="204"/>
+      <c r="C12" s="217"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8944,10 +8932,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="219" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="207"/>
+      <c r="C17" s="220"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8956,10 +8944,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="216" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="204"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9023,7 +9011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomLeft" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9674,78 +9662,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="221"/>
-      <c r="U1" s="221"/>
-      <c r="V1" s="221"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="221"/>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="221"/>
-      <c r="AD1" s="222"/>
+      <c r="A1" s="233" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="235"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="223"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="208" t="s">
+      <c r="A2" s="236"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="221" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="221"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="221"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="127"/>
@@ -9775,30 +9763,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="211" t="s">
+      <c r="AC3" s="224" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="213" t="s">
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="226" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="215" t="s">
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="228" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="203" t="s">
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="217"/>
-      <c r="AK3" s="218" t="s">
+      <c r="AJ3" s="230"/>
+      <c r="AK3" s="231" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="219"/>
-      <c r="AM3" s="209" t="s">
+      <c r="AL3" s="232"/>
+      <c r="AM3" s="222" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="210"/>
+      <c r="AN3" s="223"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9918,7 +9906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74">
         <v>1</v>
       </c>
@@ -9963,20 +9951,20 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="238"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="238"/>
-      <c r="AH5" s="239"/>
-      <c r="AI5" s="240"/>
-      <c r="AJ5" s="241"/>
-      <c r="AK5" s="240"/>
-      <c r="AL5" s="242"/>
-      <c r="AM5" s="243"/>
-      <c r="AN5" s="244"/>
-    </row>
-    <row r="6" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="208"/>
+      <c r="AF5" s="177"/>
+      <c r="AG5" s="208"/>
+      <c r="AH5" s="209"/>
+      <c r="AI5" s="210"/>
+      <c r="AJ5" s="211"/>
+      <c r="AK5" s="210"/>
+      <c r="AL5" s="212"/>
+      <c r="AM5" s="213"/>
+      <c r="AN5" s="214"/>
+    </row>
+    <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
         <v>2</v>
       </c>
@@ -10021,20 +10009,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="236" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD6" s="237"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
-      <c r="AM6" s="163"/>
-      <c r="AN6" s="163"/>
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="162"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
@@ -10071,18 +10057,18 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="228"/>
-      <c r="AF7" s="229"/>
-      <c r="AG7" s="230"/>
-      <c r="AH7" s="231"/>
-      <c r="AI7" s="232"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="234"/>
-      <c r="AL7" s="189"/>
-      <c r="AM7" s="234"/>
-      <c r="AN7" s="235"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="201"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="204"/>
+      <c r="AJ7" s="205"/>
+      <c r="AK7" s="206"/>
+      <c r="AL7" s="187"/>
+      <c r="AM7" s="206"/>
+      <c r="AN7" s="207"/>
     </row>
     <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
@@ -10119,18 +10105,18 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="112"/>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="194"/>
-      <c r="AF8" s="195"/>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="198"/>
-      <c r="AJ8" s="199"/>
-      <c r="AK8" s="187"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="196"/>
+      <c r="AJ8" s="197"/>
+      <c r="AK8" s="185"/>
       <c r="AL8" s="100"/>
-      <c r="AM8" s="187"/>
-      <c r="AN8" s="190"/>
+      <c r="AM8" s="185"/>
+      <c r="AN8" s="188"/>
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74">
@@ -10176,17 +10162,17 @@
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
       <c r="AC9" s="143"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="200"/>
-      <c r="AJ9" s="201"/>
-      <c r="AK9" s="184"/>
-      <c r="AL9" s="188"/>
-      <c r="AM9" s="184"/>
-      <c r="AN9" s="185"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="180"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="195"/>
+      <c r="AI9" s="198"/>
+      <c r="AJ9" s="199"/>
+      <c r="AK9" s="182"/>
+      <c r="AL9" s="186"/>
+      <c r="AM9" s="182"/>
+      <c r="AN9" s="183"/>
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
@@ -10235,14 +10221,14 @@
       <c r="AD10" s="151"/>
       <c r="AE10" s="150"/>
       <c r="AF10" s="151"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="181"/>
+      <c r="AG10" s="178"/>
+      <c r="AH10" s="179"/>
       <c r="AI10" s="118"/>
-      <c r="AJ10" s="175"/>
+      <c r="AJ10" s="173"/>
       <c r="AK10" s="118"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="118"/>
-      <c r="AN10" s="175"/>
+      <c r="AN10" s="173"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
@@ -10290,7 +10276,7 @@
         <v>186</v>
       </c>
       <c r="AC11" s="122"/>
-      <c r="AD11" s="167"/>
+      <c r="AD11" s="165"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="93"/>
       <c r="AG11" s="90"/>
@@ -10349,18 +10335,18 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="179"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="159"/>
-      <c r="AL12" s="161"/>
-      <c r="AM12" s="162"/>
-      <c r="AN12" s="178"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="155"/>
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="158"/>
+      <c r="AJ12" s="159"/>
+      <c r="AK12" s="158"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="176"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
@@ -10405,24 +10391,24 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="164"/>
-      <c r="AH13" s="172"/>
-      <c r="AI13" s="164"/>
-      <c r="AJ13" s="174"/>
-      <c r="AK13" s="164"/>
-      <c r="AL13" s="172"/>
-      <c r="AM13" s="164"/>
-      <c r="AN13" s="174"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="162"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="163"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="163"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="163"/>
+      <c r="AL13" s="170"/>
+      <c r="AM13" s="163"/>
+      <c r="AN13" s="172"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="152" t="s">
         <v>232</v>
       </c>
       <c r="C14" s="125" t="s">
@@ -10454,17 +10440,17 @@
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
       <c r="AC14" s="101"/>
-      <c r="AD14" s="169"/>
+      <c r="AD14" s="167"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="169"/>
+      <c r="AF14" s="167"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="175"/>
+      <c r="AJ14" s="173"/>
       <c r="AK14" s="118"/>
       <c r="AL14" s="119"/>
       <c r="AM14" s="118"/>
-      <c r="AN14" s="175"/>
+      <c r="AN14" s="173"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
@@ -10498,23 +10484,23 @@
       <c r="AA15" s="137"/>
       <c r="AB15" s="137"/>
       <c r="AC15" s="137"/>
-      <c r="AD15" s="170"/>
+      <c r="AD15" s="168"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="170"/>
+      <c r="AF15" s="168"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="176"/>
+      <c r="AJ15" s="174"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="176"/>
+      <c r="AN15" s="174"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="154"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="131"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -10542,15 +10528,15 @@
       <c r="AA16" s="133"/>
       <c r="AB16" s="141"/>
       <c r="AC16" s="142"/>
-      <c r="AD16" s="171"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="171"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="165"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="165"/>
-      <c r="AL16" s="173"/>
+      <c r="AD16" s="169"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="171"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="175"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="171"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10638,8 +10624,7 @@
   <sortState ref="B5:C15">
     <sortCondition ref="B5:B15"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="AC6:AD6"/>
+  <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AC3:AD3"/>
@@ -11357,14 +11342,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="226" t="s">
+      <c r="AE1" s="239" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="227"/>
-      <c r="AH1" s="227"/>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="227"/>
+      <c r="AF1" s="240"/>
+      <c r="AG1" s="240"/>
+      <c r="AH1" s="240"/>
+      <c r="AI1" s="240"/>
+      <c r="AJ1" s="240"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11394,30 +11379,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="211" t="s">
+      <c r="AC2" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="213" t="s">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="226" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="228" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="203" t="s">
+      <c r="AH2" s="229"/>
+      <c r="AI2" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="217"/>
-      <c r="AK2" s="218" t="s">
+      <c r="AJ2" s="230"/>
+      <c r="AK2" s="231" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="219"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="222" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="210"/>
+      <c r="AN2" s="223"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA  31   DEL   31    AL   06    AGOSTO        2023</t>
+    <t>SEMANA  04   DEL   36    AL   10   SEPTIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -2747,6 +2747,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2824,9 +2827,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3631,11 +3631,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="215" t="s">
+      <c r="Y1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8893,17 +8893,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="219" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="219"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="217" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="217"/>
+      <c r="C5" s="218"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8920,10 +8920,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="217" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="217"/>
+      <c r="C12" s="218"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8932,10 +8932,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="219" t="s">
+      <c r="B17" s="220" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="220"/>
+      <c r="C17" s="221"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8944,10 +8944,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="217" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="218"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9011,7 +9011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE9" sqref="AE9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9662,78 +9662,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="234"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="234"/>
-      <c r="AD1" s="235"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="235"/>
+      <c r="AC1" s="235"/>
+      <c r="AD1" s="236"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="236"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="221" t="s">
+      <c r="A2" s="237"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="238"/>
+      <c r="AB2" s="238"/>
+      <c r="AC2" s="238"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="221"/>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="221"/>
-      <c r="AJ2" s="221"/>
+      <c r="AF2" s="222"/>
+      <c r="AG2" s="222"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="222"/>
+      <c r="AJ2" s="222"/>
     </row>
     <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="127"/>
@@ -9763,30 +9763,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="224" t="s">
+      <c r="AC3" s="225" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="225"/>
-      <c r="AE3" s="226" t="s">
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="227" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="227"/>
-      <c r="AG3" s="228" t="s">
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="229" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="216" t="s">
+      <c r="AH3" s="230"/>
+      <c r="AI3" s="217" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="230"/>
-      <c r="AK3" s="231" t="s">
+      <c r="AJ3" s="231"/>
+      <c r="AK3" s="232" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="222" t="s">
+      <c r="AL3" s="233"/>
+      <c r="AM3" s="223" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="223"/>
+      <c r="AN3" s="224"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -10009,8 +10009,8 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="241"/>
-      <c r="AD6" s="241"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="215"/>
       <c r="AE6" s="162"/>
       <c r="AF6" s="162"/>
       <c r="AG6" s="162"/>
@@ -11342,14 +11342,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="239" t="s">
+      <c r="AE1" s="240" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="240"/>
-      <c r="AJ1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="241"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="241"/>
+      <c r="AJ1" s="241"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11379,30 +11379,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="224" t="s">
+      <c r="AC2" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="226" t="s">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="227" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="227"/>
-      <c r="AG2" s="228" t="s">
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="229" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="229"/>
-      <c r="AI2" s="216" t="s">
+      <c r="AH2" s="230"/>
+      <c r="AI2" s="217" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="230"/>
-      <c r="AK2" s="231" t="s">
+      <c r="AJ2" s="231"/>
+      <c r="AK2" s="232" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="222" t="s">
+      <c r="AL2" s="233"/>
+      <c r="AM2" s="223" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="223"/>
+      <c r="AN2" s="224"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1019,16 +1019,16 @@
     <t>HERNANDEZ TELLEZ ERICK</t>
   </si>
   <si>
-    <t>SANTOS BARRAGAN MARGARITO</t>
-  </si>
-  <si>
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
     <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
   </si>
   <si>
-    <t>SEMANA  04   DEL   36    AL   10   SEPTIEMBRE    2023</t>
+    <t>Sanchez Solano Oscar</t>
+  </si>
+  <si>
+    <t>SEMANA  42   DEL  02     AL   08   OCTUBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2827,6 +2827,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9911,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="125" t="s">
         <v>133</v>
@@ -10075,7 +10078,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="82" t="s">
         <v>133</v>
@@ -10234,11 +10237,11 @@
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="128" t="s">
-        <v>224</v>
+      <c r="B11" s="242" t="s">
+        <v>288</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="D11" s="66">
         <v>42128</v>
@@ -10292,11 +10295,11 @@
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="129" t="s">
-        <v>286</v>
+      <c r="B12" s="128" t="s">
+        <v>224</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="D12" s="73">
         <v>42212</v>
@@ -10621,8 +10624,8 @@
       <c r="AI18" s="70"/>
     </row>
   </sheetData>
-  <sortState ref="B5:C15">
-    <sortCondition ref="B5:B15"/>
+  <sortState ref="B5:C14">
+    <sortCondition ref="B5:B14"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t>Sanchez Solano Oscar</t>
   </si>
   <si>
-    <t>SEMANA  42   DEL  02     AL   08   OCTUBRE    2023</t>
+    <t>SEMANA  44   DEL  30     AL   05   NOVIEMBRE    2023</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1849,28 +1849,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1976,58 +1954,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2047,21 +1973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2140,21 +2051,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2164,26 +2064,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2191,10 +2076,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="mediumDashed">
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -2203,7 +2123,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -2211,37 +2131,39 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2249,7 +2171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2494,12 +2416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2522,15 +2438,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,34 +2458,16 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2579,7 +2477,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,7 +2486,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2597,7 +2495,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2622,7 +2520,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2635,15 +2533,15 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2652,102 +2550,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,12 +2668,72 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2803,33 +2760,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3634,11 +3564,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="216" t="s">
+      <c r="Y1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="216"/>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="207"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8896,17 +8826,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="210" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="219"/>
+      <c r="C3" s="210"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="218"/>
+      <c r="C5" s="209"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8923,10 +8853,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="208" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="218"/>
+      <c r="C12" s="209"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8935,10 +8865,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="221"/>
+      <c r="C17" s="212"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8947,10 +8877,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="218"/>
+      <c r="C22" s="209"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -9665,81 +9595,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="226" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="235"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="235"/>
-      <c r="AD1" s="236"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="228"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="237"/>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
-      <c r="Y2" s="238"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="238"/>
-      <c r="AB2" s="238"/>
-      <c r="AC2" s="238"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="222" t="s">
+      <c r="A2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="230"/>
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="230"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="213" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="222"/>
-      <c r="AG2" s="222"/>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="222"/>
-    </row>
-    <row r="3" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127"/>
+      <c r="AF2" s="213"/>
+      <c r="AG2" s="213"/>
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="213"/>
+      <c r="AJ2" s="213"/>
+    </row>
+    <row r="3" spans="1:40" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="125"/>
       <c r="B3" s="106"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
@@ -9766,32 +9696,32 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="225" t="s">
+      <c r="AC3" s="216" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="226"/>
-      <c r="AE3" s="227" t="s">
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="218" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="229" t="s">
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="220" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="217" t="s">
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="231"/>
-      <c r="AK3" s="232" t="s">
+      <c r="AJ3" s="223"/>
+      <c r="AK3" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="233"/>
-      <c r="AM3" s="223" t="s">
+      <c r="AL3" s="225"/>
+      <c r="AM3" s="214" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="224"/>
-    </row>
-    <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN3" s="215"/>
+    </row>
+    <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="76" t="s">
         <v>1</v>
@@ -9872,40 +9802,40 @@
       <c r="AB4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="120" t="s">
+      <c r="AC4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AD4" s="121" t="s">
+      <c r="AD4" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="144" t="s">
+      <c r="AE4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="145" t="s">
+      <c r="AF4" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="144" t="s">
+      <c r="AG4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="146" t="s">
+      <c r="AH4" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="144" t="s">
+      <c r="AI4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="147" t="s">
+      <c r="AJ4" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="144" t="s">
+      <c r="AK4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="148" t="s">
+      <c r="AL4" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="144" t="s">
+      <c r="AM4" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="149" t="s">
+      <c r="AN4" s="198" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9916,7 +9846,7 @@
       <c r="B5" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="123" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="66">
@@ -9954,18 +9884,18 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="177"/>
-      <c r="AE5" s="208"/>
-      <c r="AF5" s="177"/>
-      <c r="AG5" s="208"/>
-      <c r="AH5" s="209"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="211"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="212"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="214"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="196"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="196"/>
+      <c r="AG5" s="142"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="197"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74">
@@ -9974,7 +9904,7 @@
       <c r="B6" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="123" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="66">
@@ -10012,18 +9942,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="215"/>
-      <c r="AD6" s="215"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="162"/>
-      <c r="AM6" s="162"/>
-      <c r="AN6" s="162"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="173"/>
+      <c r="AF6" s="205"/>
+      <c r="AG6" s="173"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="155"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="155"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
+      <c r="AN6" s="164"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
@@ -10032,7 +9962,7 @@
       <c r="B7" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="123" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="66"/>
@@ -10060,24 +9990,24 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="201"/>
-      <c r="AG7" s="202"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="189"/>
+      <c r="AG7" s="190"/>
       <c r="AH7" s="203"/>
-      <c r="AI7" s="204"/>
-      <c r="AJ7" s="205"/>
-      <c r="AK7" s="206"/>
-      <c r="AL7" s="187"/>
-      <c r="AM7" s="206"/>
-      <c r="AN7" s="207"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="191"/>
+      <c r="AK7" s="192"/>
+      <c r="AL7" s="178"/>
+      <c r="AM7" s="192"/>
+      <c r="AN7" s="165"/>
     </row>
     <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="127" t="s">
         <v>287</v>
       </c>
       <c r="C8" s="82" t="s">
@@ -10108,27 +10038,27 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="112"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="190"/>
-      <c r="AI8" s="196"/>
-      <c r="AJ8" s="197"/>
-      <c r="AK8" s="185"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="180"/>
+      <c r="AE8" s="182"/>
+      <c r="AF8" s="183"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="204"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="186"/>
+      <c r="AK8" s="176"/>
       <c r="AL8" s="100"/>
-      <c r="AM8" s="185"/>
-      <c r="AN8" s="188"/>
-    </row>
-    <row r="9" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="179"/>
+    </row>
+    <row r="9" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="126" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="124" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="66">
@@ -10164,27 +10094,27 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="194"/>
-      <c r="AF9" s="180"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="195"/>
-      <c r="AI9" s="198"/>
-      <c r="AJ9" s="199"/>
-      <c r="AK9" s="182"/>
-      <c r="AL9" s="186"/>
-      <c r="AM9" s="182"/>
-      <c r="AN9" s="183"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="181"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="195"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="185"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="188"/>
+      <c r="AK9" s="173"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="173"/>
+      <c r="AN9" s="174"/>
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="66">
@@ -10220,24 +10150,24 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="178"/>
-      <c r="AH10" s="179"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="196"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="171"/>
       <c r="AI10" s="118"/>
-      <c r="AJ10" s="173"/>
+      <c r="AJ10" s="165"/>
       <c r="AK10" s="118"/>
       <c r="AL10" s="119"/>
       <c r="AM10" s="118"/>
-      <c r="AN10" s="173"/>
+      <c r="AN10" s="165"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="242" t="s">
+      <c r="B11" s="193" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="82" t="s">
@@ -10278,8 +10208,8 @@
       <c r="AB11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="165"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="157"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="93"/>
       <c r="AG11" s="90"/>
@@ -10295,7 +10225,7 @@
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>224</v>
       </c>
       <c r="C12" s="82" t="s">
@@ -10338,27 +10268,27 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="177"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="159"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="176"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="147"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="147"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="150"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="150"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="168"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="123" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="66"/>
@@ -10394,30 +10324,30 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="163"/>
-      <c r="AJ13" s="172"/>
-      <c r="AK13" s="163"/>
-      <c r="AL13" s="170"/>
-      <c r="AM13" s="163"/>
-      <c r="AN13" s="172"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="154"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="155"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="164"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="162"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="164"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="65"/>
       <c r="F14" s="2"/>
       <c r="G14" s="65"/>
@@ -10443,103 +10373,103 @@
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
       <c r="AC14" s="101"/>
-      <c r="AD14" s="167"/>
+      <c r="AD14" s="159"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="167"/>
+      <c r="AF14" s="159"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="173"/>
+      <c r="AJ14" s="165"/>
       <c r="AK14" s="118"/>
       <c r="AL14" s="119"/>
       <c r="AM14" s="118"/>
-      <c r="AN14" s="173"/>
+      <c r="AN14" s="165"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="168"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="160"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="168"/>
+      <c r="AF15" s="160"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="174"/>
+      <c r="AJ15" s="166"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="174"/>
+      <c r="AN15" s="166"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="169"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="164"/>
-      <c r="AH16" s="171"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="175"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="171"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="167"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="163"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10547,8 +10477,8 @@
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -11345,14 +11275,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="240" t="s">
+      <c r="AE1" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="241"/>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="241"/>
-      <c r="AJ1" s="241"/>
+      <c r="AF1" s="235"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11382,30 +11312,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="225" t="s">
+      <c r="AC2" s="236" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="226"/>
-      <c r="AE2" s="227" t="s">
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="229" t="s">
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="240" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="217" t="s">
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="208" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="231"/>
-      <c r="AK2" s="232" t="s">
+      <c r="AJ2" s="242"/>
+      <c r="AK2" s="243" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="233"/>
-      <c r="AM2" s="223" t="s">
+      <c r="AL2" s="244"/>
+      <c r="AM2" s="232" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="224"/>
+      <c r="AN2" s="233"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t>Sanchez Solano Oscar</t>
   </si>
   <si>
-    <t>SEMANA  44   DEL  30     AL   05   NOVIEMBRE    2023</t>
+    <t>SEMANA  48   DEL  27     AL   03   DICIEMBRE    2023</t>
   </si>
 </sst>
 </file>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1028,7 +1028,7 @@
     <t>Sanchez Solano Oscar</t>
   </si>
   <si>
-    <t>SEMANA  48   DEL  27     AL   03   DICIEMBRE    2023</t>
+    <t>SEMANA  01   DEL  01     AL   07   E N E R O     2024</t>
   </si>
 </sst>
 </file>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="291">
   <si>
     <t>Aumentos 2015</t>
   </si>
@@ -1028,7 +1028,10 @@
     <t>Sanchez Solano Oscar</t>
   </si>
   <si>
-    <t>SEMANA  01   DEL  01     AL   07   E N E R O     2024</t>
+    <t>SALINAS AVILES JOSE</t>
+  </si>
+  <si>
+    <t>SEMANA  05      DEL  29   AL   04   FEBRERO     2024</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,12 +1187,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1197,15 +1194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1328,7 +1316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -2036,21 +2024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2070,19 +2043,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2166,12 +2126,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2416,9 +2432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2438,7 +2451,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,151 +2465,87 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2605,46 +2554,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2668,34 +2607,34 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2760,6 +2699,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3564,11 +3524,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="207" t="s">
+      <c r="Y1" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="207"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8826,17 +8786,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="183"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="181" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="209"/>
+      <c r="C5" s="182"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8853,10 +8813,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="181" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="209"/>
+      <c r="C12" s="182"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8865,10 +8825,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="184" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="212"/>
+      <c r="C17" s="185"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8877,10 +8837,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="181" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="209"/>
+      <c r="C22" s="182"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8944,7 +8904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9595,81 +9555,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="228"/>
+      <c r="A1" s="199" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="201"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="229"/>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="230"/>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="230"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="213" t="s">
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="186" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="213"/>
-      <c r="AJ2" s="213"/>
+      <c r="AF2" s="186"/>
+      <c r="AG2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="186"/>
+      <c r="AJ2" s="186"/>
     </row>
     <row r="3" spans="1:40" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="106"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
@@ -9696,30 +9656,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="216" t="s">
+      <c r="AC3" s="189" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="218" t="s">
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="219"/>
-      <c r="AG3" s="220" t="s">
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222" t="s">
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="223"/>
-      <c r="AK3" s="224" t="s">
+      <c r="AJ3" s="196"/>
+      <c r="AK3" s="197" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="225"/>
-      <c r="AM3" s="214" t="s">
+      <c r="AL3" s="198"/>
+      <c r="AM3" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="215"/>
+      <c r="AN3" s="188"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9802,51 +9762,51 @@
       <c r="AB4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="198" t="s">
+      <c r="AC4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AD4" s="198" t="s">
+      <c r="AD4" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="198" t="s">
+      <c r="AE4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="198" t="s">
+      <c r="AF4" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="198" t="s">
+      <c r="AG4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="198" t="s">
+      <c r="AH4" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="198" t="s">
+      <c r="AI4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="198" t="s">
+      <c r="AJ4" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="198" t="s">
+      <c r="AK4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="198" t="s">
+      <c r="AL4" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="198" t="s">
+      <c r="AM4" s="172" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="198" t="s">
+      <c r="AN4" s="172" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="74">
         <v>1</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="66">
@@ -9884,27 +9844,27 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="196"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="196"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="201"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="141"/>
-      <c r="AN5" s="197"/>
-    </row>
-    <row r="6" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="223"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="170"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="171"/>
+    </row>
+    <row r="6" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
         <v>2</v>
       </c>
       <c r="B6" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="66">
@@ -9942,18 +9902,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="206"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="205"/>
-      <c r="AG6" s="173"/>
-      <c r="AH6" s="202"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="164"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
-      <c r="AN6" s="164"/>
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="224"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="179"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="154"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
@@ -9962,7 +9922,7 @@
       <c r="B7" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="66"/>
@@ -9990,24 +9950,24 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="199"/>
-      <c r="AJ7" s="191"/>
-      <c r="AK7" s="192"/>
-      <c r="AL7" s="178"/>
-      <c r="AM7" s="192"/>
-      <c r="AN7" s="165"/>
+      <c r="AC7" s="223"/>
+      <c r="AD7" s="224"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="173"/>
+      <c r="AJ7" s="168"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="145"/>
+      <c r="AM7" s="145"/>
+      <c r="AN7" s="155"/>
     </row>
     <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>287</v>
       </c>
       <c r="C8" s="82" t="s">
@@ -10038,27 +9998,27 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="112"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="180"/>
-      <c r="AE8" s="182"/>
-      <c r="AF8" s="183"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="204"/>
-      <c r="AI8" s="200"/>
-      <c r="AJ8" s="186"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="179"/>
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="224"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="178"/>
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="146"/>
+      <c r="AL8" s="145"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="162"/>
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="125" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="123" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="66">
@@ -10094,27 +10054,27 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="195"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="185"/>
-      <c r="AI9" s="187"/>
-      <c r="AJ9" s="188"/>
-      <c r="AK9" s="173"/>
-      <c r="AL9" s="177"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="174"/>
-    </row>
-    <row r="10" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="223"/>
+      <c r="AD9" s="224"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="178"/>
+      <c r="AI9" s="218"/>
+      <c r="AJ9" s="219"/>
+      <c r="AK9" s="146"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="160"/>
+    </row>
+    <row r="10" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="66">
@@ -10150,27 +10110,27 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="196"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="171"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="165"/>
-    </row>
-    <row r="11" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="223"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="178"/>
+      <c r="AI10" s="218"/>
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="146"/>
+      <c r="AL10" s="145"/>
+      <c r="AM10" s="145"/>
+      <c r="AN10" s="155"/>
+    </row>
+    <row r="11" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="193" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="122" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="66">
@@ -10208,28 +10168,28 @@
       <c r="AB11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="157"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="100"/>
-      <c r="AM11" s="94"/>
+      <c r="AC11" s="223"/>
+      <c r="AD11" s="224"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="178"/>
+      <c r="AI11" s="218"/>
+      <c r="AJ11" s="219"/>
+      <c r="AK11" s="146"/>
+      <c r="AL11" s="145"/>
+      <c r="AM11" s="145"/>
       <c r="AN11" s="98"/>
     </row>
-    <row r="12" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="126" t="s">
-        <v>224</v>
+      <c r="B12" s="169" t="s">
+        <v>288</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="D12" s="73">
         <v>42212</v>
@@ -10268,28 +10228,28 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="147"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="147"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="152"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="168"/>
-    </row>
-    <row r="13" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="223"/>
+      <c r="AD12" s="224"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="143"/>
+      <c r="AJ12" s="144"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="145"/>
+      <c r="AM12" s="145"/>
+      <c r="AN12" s="158"/>
+    </row>
+    <row r="13" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="136" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>124</v>
+      <c r="B13" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>277</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="17">
@@ -10324,30 +10284,30 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="154"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="155"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="155"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="164"/>
-    </row>
-    <row r="14" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="223"/>
+      <c r="AD13" s="224"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="146"/>
+      <c r="AJ13" s="154"/>
+      <c r="AK13" s="146"/>
+      <c r="AL13" s="145"/>
+      <c r="AM13" s="145"/>
+      <c r="AN13" s="154"/>
+    </row>
+    <row r="14" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="123" t="s">
+      <c r="B14" s="135" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="121"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="65"/>
       <c r="F14" s="2"/>
       <c r="G14" s="65"/>
@@ -10372,104 +10332,108 @@
       <c r="Z14" s="65"/>
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="159"/>
+      <c r="AC14" s="223"/>
+      <c r="AD14" s="224"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="159"/>
+      <c r="AF14" s="149"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="165"/>
-    </row>
-    <row r="15" spans="1:40" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="155"/>
+      <c r="AK14" s="146"/>
+      <c r="AL14" s="145"/>
+      <c r="AM14" s="145"/>
+      <c r="AN14" s="155"/>
+    </row>
+    <row r="15" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
+      <c r="B15" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="160"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="224"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="160"/>
+      <c r="AF15" s="150"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="166"/>
+      <c r="AJ15" s="156"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="166"/>
+      <c r="AN15" s="156"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="156"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="156"/>
-      <c r="AL16" s="163"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="147"/>
+      <c r="AH16" s="153"/>
+      <c r="AI16" s="147"/>
+      <c r="AJ16" s="157"/>
+      <c r="AK16" s="147"/>
+      <c r="AL16" s="153"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10477,8 +10441,8 @@
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -10554,8 +10518,8 @@
       <c r="AI18" s="70"/>
     </row>
   </sheetData>
-  <sortState ref="B5:C14">
-    <sortCondition ref="B5:B14"/>
+  <sortState ref="B5:C15">
+    <sortCondition ref="B5:B15"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="AE2:AJ2"/>
@@ -11275,14 +11239,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="234" t="s">
+      <c r="AE1" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="235"/>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="235"/>
-      <c r="AJ1" s="235"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11312,30 +11276,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="236" t="s">
+      <c r="AC2" s="209" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="238" t="s">
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="211" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="240" t="s">
+      <c r="AF2" s="212"/>
+      <c r="AG2" s="213" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="208" t="s">
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="181" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="242"/>
-      <c r="AK2" s="243" t="s">
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="216" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="244"/>
-      <c r="AM2" s="232" t="s">
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="205" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="233"/>
+      <c r="AN2" s="206"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>

--- a/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
+++ b/01 DOCUEMENTOS/LISTA DE PERSONAL 2 0 2 0.xlsx
@@ -1022,16 +1022,16 @@
     <t>AGUILAR SOLANO BEATRIZ</t>
   </si>
   <si>
-    <t xml:space="preserve">GONZALEZ MARTINEZ. ESPERANZA </t>
-  </si>
-  <si>
     <t>Sanchez Solano Oscar</t>
   </si>
   <si>
     <t>SALINAS AVILES JOSE</t>
   </si>
   <si>
-    <t>SEMANA  05      DEL  29   AL   04   FEBRERO     2024</t>
+    <t>LILLO  TECOX GUADALUPE</t>
+  </si>
+  <si>
+    <t>SEMANA  13      DEL  25   AL   31   MARZO     2024</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,6 +1235,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2187,7 +2196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2448,9 +2457,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2555,9 +2561,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2586,6 +2589,36 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2699,27 +2732,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3524,11 +3536,11 @@
       <c r="V1" s="8"/>
       <c r="W1" s="9"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="180" t="s">
+      <c r="Y1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -8786,17 +8798,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="191" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="183"/>
+      <c r="C3" s="191"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="189" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="190"/>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="58" t="s">
@@ -8813,10 +8825,10 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="189" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="182"/>
+      <c r="C12" s="190"/>
     </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="58" t="s">
@@ -8825,10 +8837,10 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="192" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="185"/>
+      <c r="C17" s="193"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -8837,10 +8849,10 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="182"/>
+      <c r="C22" s="190"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
@@ -8903,8 +8915,8 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9555,81 +9567,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="207" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="201"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="209"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="204"/>
-      <c r="AE2" s="186" t="s">
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="194" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="186"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
     </row>
     <row r="3" spans="1:40" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
+      <c r="A3" s="124">
+        <v>0</v>
+      </c>
       <c r="B3" s="106"/>
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
@@ -9656,30 +9670,30 @@
       <c r="Z3" s="107"/>
       <c r="AA3" s="107"/>
       <c r="AB3" s="107"/>
-      <c r="AC3" s="189" t="s">
+      <c r="AC3" s="197" t="s">
         <v>284</v>
       </c>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="191" t="s">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="199" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="193" t="s">
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="201" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195" t="s">
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="203" t="s">
         <v>274</v>
       </c>
-      <c r="AJ3" s="196"/>
-      <c r="AK3" s="197" t="s">
+      <c r="AJ3" s="204"/>
+      <c r="AK3" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="187" t="s">
+      <c r="AL3" s="206"/>
+      <c r="AM3" s="195" t="s">
         <v>276</v>
       </c>
-      <c r="AN3" s="188"/>
+      <c r="AN3" s="196"/>
     </row>
     <row r="4" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
@@ -9762,40 +9776,40 @@
       <c r="AB4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="172" t="s">
+      <c r="AC4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="AE4" s="172" t="s">
+      <c r="AE4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AF4" s="172" t="s">
+      <c r="AF4" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="AG4" s="172" t="s">
+      <c r="AG4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AH4" s="172" t="s">
+      <c r="AH4" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="AI4" s="172" t="s">
+      <c r="AI4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AJ4" s="172" t="s">
+      <c r="AJ4" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="AK4" s="172" t="s">
+      <c r="AK4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AL4" s="172" t="s">
+      <c r="AL4" s="170" t="s">
         <v>269</v>
       </c>
-      <c r="AM4" s="172" t="s">
+      <c r="AM4" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="172" t="s">
+      <c r="AN4" s="170" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9844,18 +9858,18 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="112"/>
-      <c r="AC5" s="223"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="139"/>
-      <c r="AM5" s="139"/>
-      <c r="AN5" s="171"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="138"/>
+      <c r="AN5" s="169"/>
     </row>
     <row r="6" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74">
@@ -9902,18 +9916,18 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="112"/>
-      <c r="AC6" s="223"/>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="154"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="153"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="144"/>
+      <c r="AM6" s="144"/>
+      <c r="AN6" s="153"/>
     </row>
     <row r="7" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74">
@@ -9950,28 +9964,28 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="223"/>
-      <c r="AD7" s="224"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="173"/>
-      <c r="AJ7" s="168"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="155"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="175"/>
+      <c r="AI7" s="171"/>
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="144"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="154"/>
     </row>
     <row r="8" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>133</v>
+      <c r="B8" s="187" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="17"/>
@@ -9998,28 +10012,28 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="112"/>
-      <c r="AC8" s="223"/>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="178"/>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="145"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="162"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="145"/>
+      <c r="AL8" s="144"/>
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="161"/>
     </row>
     <row r="9" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="123" t="s">
-        <v>33</v>
+      <c r="B9" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>124</v>
       </c>
       <c r="D9" s="66">
         <v>41225</v>
@@ -10054,28 +10068,28 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="112"/>
-      <c r="AC9" s="223"/>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="178"/>
-      <c r="AI9" s="218"/>
-      <c r="AJ9" s="219"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="160"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="178"/>
+      <c r="AJ9" s="179"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="159"/>
     </row>
     <row r="10" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="136" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>124</v>
+      <c r="B10" s="186" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>178</v>
       </c>
       <c r="D10" s="66">
         <v>41852</v>
@@ -10110,25 +10124,25 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="223"/>
-      <c r="AD10" s="220"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="178"/>
-      <c r="AI10" s="218"/>
-      <c r="AJ10" s="219"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="145"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="155"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="160"/>
+      <c r="AH10" s="176"/>
+      <c r="AI10" s="178"/>
+      <c r="AJ10" s="179"/>
+      <c r="AK10" s="145"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="144"/>
+      <c r="AN10" s="154"/>
     </row>
     <row r="11" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="74">
         <v>7</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="122" t="s">
         <v>133</v>
@@ -10168,25 +10182,25 @@
       <c r="AB11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AC11" s="223"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="178"/>
-      <c r="AI11" s="218"/>
-      <c r="AJ11" s="219"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="145"/>
-      <c r="AM11" s="145"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="184"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="178"/>
+      <c r="AJ11" s="179"/>
+      <c r="AK11" s="145"/>
+      <c r="AL11" s="144"/>
+      <c r="AM11" s="144"/>
       <c r="AN11" s="98"/>
     </row>
     <row r="12" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="169" t="s">
-        <v>288</v>
+      <c r="B12" s="185" t="s">
+        <v>287</v>
       </c>
       <c r="C12" s="82" t="s">
         <v>133</v>
@@ -10228,18 +10242,18 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="223"/>
-      <c r="AD12" s="224"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="161"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="143"/>
-      <c r="AJ12" s="144"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="145"/>
-      <c r="AM12" s="145"/>
-      <c r="AN12" s="158"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="142"/>
+      <c r="AJ12" s="143"/>
+      <c r="AK12" s="145"/>
+      <c r="AL12" s="144"/>
+      <c r="AM12" s="144"/>
+      <c r="AN12" s="157"/>
     </row>
     <row r="13" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="74">
@@ -10284,24 +10298,24 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="112"/>
-      <c r="AC13" s="223"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="154"/>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="145"/>
-      <c r="AM13" s="145"/>
-      <c r="AN13" s="154"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="153"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="144"/>
+      <c r="AM13" s="144"/>
+      <c r="AN13" s="153"/>
     </row>
     <row r="14" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="134" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -10332,108 +10346,108 @@
       <c r="Z14" s="65"/>
       <c r="AA14" s="65"/>
       <c r="AB14" s="65"/>
-      <c r="AC14" s="223"/>
-      <c r="AD14" s="224"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="184"/>
       <c r="AE14" s="118"/>
-      <c r="AF14" s="149"/>
+      <c r="AF14" s="148"/>
       <c r="AG14" s="118"/>
       <c r="AH14" s="119"/>
       <c r="AI14" s="118"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="145"/>
-      <c r="AM14" s="145"/>
-      <c r="AN14" s="155"/>
+      <c r="AJ14" s="154"/>
+      <c r="AK14" s="145"/>
+      <c r="AL14" s="144"/>
+      <c r="AM14" s="144"/>
+      <c r="AN14" s="154"/>
     </row>
     <row r="15" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="134"/>
-      <c r="R15" s="134"/>
-      <c r="S15" s="134"/>
-      <c r="T15" s="134"/>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="134"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="223"/>
-      <c r="AD15" s="224"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="184"/>
       <c r="AE15" s="116"/>
-      <c r="AF15" s="150"/>
+      <c r="AF15" s="149"/>
       <c r="AG15" s="116"/>
       <c r="AH15" s="117"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="156"/>
+      <c r="AJ15" s="155"/>
       <c r="AK15" s="116"/>
       <c r="AL15" s="117"/>
       <c r="AM15" s="116"/>
-      <c r="AN15" s="156"/>
+      <c r="AN15" s="155"/>
     </row>
     <row r="16" spans="1:40" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="222"/>
-      <c r="AE16" s="147"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="147"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="147"/>
-      <c r="AL16" s="153"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="129"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="181"/>
+      <c r="AD16" s="182"/>
+      <c r="AE16" s="146"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="146"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="146"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="146"/>
+      <c r="AL16" s="152"/>
       <c r="AM16" s="116"/>
       <c r="AN16" s="98"/>
     </row>
@@ -10441,8 +10455,8 @@
       <c r="A17" s="75">
         <v>13</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="137"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70"/>
       <c r="F17" s="55"/>
@@ -11239,14 +11253,14 @@
       <c r="AB1" s="109"/>
       <c r="AC1" s="110"/>
       <c r="AD1" s="111"/>
-      <c r="AE1" s="207" t="s">
+      <c r="AE1" s="215" t="s">
         <v>270</v>
       </c>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
     </row>
     <row r="2" spans="1:40" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
@@ -11276,30 +11290,30 @@
       <c r="Z2" s="107"/>
       <c r="AA2" s="107"/>
       <c r="AB2" s="107"/>
-      <c r="AC2" s="209" t="s">
+      <c r="AC2" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="211" t="s">
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="219" t="s">
         <v>271</v>
       </c>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="221" t="s">
         <v>273</v>
       </c>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="181" t="s">
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="189" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="216" t="s">
+      <c r="AJ2" s="223"/>
+      <c r="AK2" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="217"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AL2" s="225"/>
+      <c r="AM2" s="213" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="206"/>
+      <c r="AN2" s="214"/>
     </row>
     <row r="3" spans="1:40" s="75" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>
